--- a/data/trans_bre/P3A_R1-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 7,3</t>
+          <t>-6,66; 6,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,01; 1,84</t>
+          <t>-12,52; 2,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,89; -0,09</t>
+          <t>-15,3; -0,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 0,0</t>
+          <t>-11,37; 0,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 29,03</t>
+          <t>-22,37; 25,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 5,49</t>
+          <t>-32,52; 6,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-34,24; -0,32</t>
+          <t>-35,1; -1,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,97; -0,11</t>
+          <t>-26,55; 1,72</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,71; 1,68</t>
+          <t>-11,72; 1,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,39; -5,87</t>
+          <t>-20,47; -6,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,18; -7,52</t>
+          <t>-21,51; -7,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 0,13</t>
+          <t>-11,95; -0,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 7,4</t>
+          <t>-38,48; 5,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,26; -17,67</t>
+          <t>-51,41; -18,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,79; -17,6</t>
+          <t>-42,0; -16,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 0,13</t>
+          <t>-31,67; 0,08</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,17; -5,9</t>
+          <t>-18,35; -6,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -5,31</t>
+          <t>-17,58; -5,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -1,29</t>
+          <t>-18,76; -2,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 20,69</t>
+          <t>-10,04; 20,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-68,87; -25,58</t>
+          <t>-69,46; -28,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,73; -17,66</t>
+          <t>-52,38; -17,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-45,89; -3,68</t>
+          <t>-46,87; -4,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 219,4</t>
+          <t>-30,87; 257,97</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,48; -3,55</t>
+          <t>-10,59; -3,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,73; -4,28</t>
+          <t>-12,09; -4,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -9,72</t>
+          <t>-18,11; -10,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,59; -1,21</t>
+          <t>-19,5; -1,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-48,84; -19,25</t>
+          <t>-48,67; -19,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,44; -17,14</t>
+          <t>-42,23; -17,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,36; -30,26</t>
+          <t>-49,5; -31,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,14; -4,42</t>
+          <t>-62,89; -3,66</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,0; -5,03</t>
+          <t>-14,04; -4,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,73; -8,27</t>
+          <t>-17,29; -8,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,96; -5,36</t>
+          <t>-14,1; -5,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,3; -1,12</t>
+          <t>-11,97; -1,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-69,09; -33,8</t>
+          <t>-69,45; -33,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,53; -39,88</t>
+          <t>-64,55; -39,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-53,93; -25,77</t>
+          <t>-54,62; -27,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-46,01; -6,77</t>
+          <t>-45,31; -5,16</t>
         </is>
       </c>
     </row>
@@ -1168,27 +1168,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,78</t>
+          <t>3,09; 6,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,67; 8,09</t>
+          <t>4,74; 8,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,79; 10,49</t>
+          <t>5,97; 10,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,2; 8,74</t>
+          <t>2,45; 8,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>93,46; —</t>
+          <t>80,62; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>162,38; 2430,95</t>
+          <t>181,36; 2703,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,42; 1057,92</t>
+          <t>30,63; 1070,27</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,66; -7,02</t>
+          <t>-10,79; -7,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,57; -10,42</t>
+          <t>-14,52; -10,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,22; -11,86</t>
+          <t>-16,2; -11,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,74; -1,1</t>
+          <t>-10,83; -0,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-48,68; -35,28</t>
+          <t>-48,91; -35,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-51,0; -39,82</t>
+          <t>-51,01; -39,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-48,03; -37,78</t>
+          <t>-47,7; -37,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-37,99; -7,62</t>
+          <t>-37,87; -7,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R1-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R1-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
